--- a/src/translations/translations.xlsx
+++ b/src/translations/translations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allieus/Funny/demo-react-i18n-with-django/src/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allieus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB04838-E04B-6540-AF15-425EE7542F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8BD7546-018E-444C-A3E4-CB917A222459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="5700" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31520" yWindow="8860" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>대학</t>
+  </si>
+  <si>
+    <t>homepage.header</t>
+  </si>
+  <si>
+    <t>홈페이지 헤더</t>
+  </si>
+  <si>
+    <t>HomePage Header</t>
+  </si>
+  <si>
+    <t>主页标题</t>
   </si>
 </sst>
 </file>
@@ -457,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
@@ -513,6 +525,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
